--- a/DZ/5 пункт/data_6.xlsx
+++ b/DZ/5 пункт/data_6.xlsx
@@ -402,13 +402,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.029</v>
+        <v>0.022</v>
       </c>
       <c r="C2">
-        <v>6.355</v>
+        <v>3.518</v>
       </c>
       <c r="D2">
-        <v>2091.821</v>
+        <v>2054.778</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -416,13 +416,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.126</v>
+        <v>0.142</v>
       </c>
       <c r="C3">
-        <v>22.074</v>
+        <v>19.169</v>
       </c>
       <c r="D3">
-        <v>2838.084</v>
+        <v>2957.538</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -430,13 +430,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>18.475</v>
+        <v>18.48</v>
       </c>
       <c r="C4">
-        <v>16.467</v>
+        <v>16.468</v>
       </c>
       <c r="D4">
-        <v>2999.963</v>
+        <v>3000.064</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -444,13 +444,13 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>20.13</v>
+        <v>20.15</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>470.585</v>
+        <v>376.126</v>
       </c>
     </row>
   </sheetData>
